--- a/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AB7BD9-FCC0-456A-9FA4-1DE89D68D85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11292DA5-8255-4A56-BF74-BB174A943283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3675" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8790" yWindow="7515" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11292DA5-8255-4A56-BF74-BB174A943283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D57853B-4A72-4B94-BC8B-9F931537C15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="7515" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24585" yWindow="6225" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11292DA5-8255-4A56-BF74-BB174A943283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62C325-1E5B-4650-AD7C-80FFEF562565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="7515" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -1325,23 +1325,24 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -1355,7 +1356,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1371,16 +1372,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.1048955771867275</v>
+        <v>1.220190039947967</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1403,9 +1404,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1482,310 +1483,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>48.294985678831857</v>
+        <v>53.334506646125639</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>45.063166115560676</v>
+        <v>49.765450779277835</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>43.148934528084666</v>
+        <v>47.651471535067977</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>40.464038275520927</v>
+        <v>44.686409737994424</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>41.671136693597433</v>
+        <v>46.019467356637584</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>45.018970292473213</v>
+        <v>49.71664317767992</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>54.465827477419737</v>
+        <v>60.149268019235038</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>57.001562827063275</v>
+        <v>62.949604160915626</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>59.940585062379967</v>
+        <v>66.195309667177213</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>59.484815636790437</v>
+        <v>65.69198127569868</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>58.338486475459213</v>
+        <v>64.426034109252669</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>58.053975864333623</v>
+        <v>64.111835173966057</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>55.805513364758632</v>
+        <v>61.628748442671935</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>55.018275266013099</v>
+        <v>60.75936303920902</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>53.93823983931307</v>
+        <v>59.566627275159881</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>54.045967158088771</v>
+        <v>59.685595804054806</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>54.880163318864753</v>
+        <v>60.606839284215525</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>57.592681960858172</v>
+        <v>63.602405832287779</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>60.349396425939062</v>
+        <v>66.646779981957962</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>60.813452568357491</v>
+        <v>67.159259798736116</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>59.410235185330329</v>
+        <v>65.60961844800218</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>55.678450373382162</v>
+        <v>61.488426588077928</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>50.253413089395337</v>
+        <v>55.497293491933412</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>47.167992190101394</v>
+        <v>52.089912805378709</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>45.101837460762219</v>
+        <v>49.808157430676012</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>42.571626589004609</v>
+        <v>47.013922239195175</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>39.814912123923719</v>
+        <v>43.969548089524991</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>38.036030244653091</v>
+        <v>42.00504212520876</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>40.151905274965678</v>
+        <v>44.341706051709124</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>42.295402694707931</v>
+        <v>46.708874729208176</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>48.836384511653357</v>
+        <v>53.932399765700147</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>51.013028798711211</v>
+        <v>56.336174144397638</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>53.565337582012553</v>
+        <v>59.154813136677447</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>53.924428644598237</v>
+        <v>59.55137489966053</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>52.372050358650888</v>
+        <v>57.837007893533645</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>51.294777170893823</v>
+        <v>56.647322604584367</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>49.725825451288664</v>
+        <v>54.914652747858248</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>49.201000052124975</v>
+        <v>54.335062478882975</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>47.007782331409324</v>
+        <v>51.912985249586256</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>46.637642313051771</v>
+        <v>51.504221586203691</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>47.598901465204221</v>
+        <v>52.565786920958416</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>52.482539916369554</v>
+        <v>57.959026897528432</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>54.946457053495962</v>
+        <v>60.680050686612404</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>55.80827560370161</v>
+        <v>61.631798917771825</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>56.117646365313888</v>
+        <v>61.973452128957248</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>53.626106838757813</v>
+        <v>59.221923588874574</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>48.565685095242607</v>
+        <v>53.633453205912886</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>46.085194524458402</v>
+        <v>50.894126566229708</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>51.488133896901502</v>
+        <v>56.860855861575267</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>47.554705642116751</v>
+        <v>52.516979319360502</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>46.482956932245628</v>
+        <v>51.333394980610976</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>42.892046306388764</v>
+        <v>47.367777350780081</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>43.19036811222918</v>
+        <v>47.697228661566037</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>47.742537890238495</v>
+        <v>52.724411626151657</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>60.095270443186109</v>
+        <v>66.366136272769921</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>62.990096855415331</v>
+        <v>69.563034177433593</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>66.315832542747387</v>
+        <v>73.235806197676979</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>65.045202628982651</v>
+        <v>71.832587651736816</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>64.304922592267545</v>
+        <v>71.015060324971685</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>64.813174557773436</v>
+        <v>71.576347743347739</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>61.885201278228607</v>
+        <v>68.342844137485628</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>60.835550479901215</v>
+        <v>67.183663599535066</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>60.868697347216823</v>
+        <v>67.220269300733506</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>61.454292003125779</v>
+        <v>67.866970021905928</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>62.161425172525284</v>
+        <v>68.647891647472619</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>62.702824005346784</v>
+        <v>69.245784767047127</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>65.752335798382148</v>
+        <v>72.613509277303521</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>65.81862953301335</v>
+        <v>72.6867206797004</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>62.702824005346784</v>
+        <v>69.245784767047127</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>57.730793908006511</v>
+        <v>63.754929587281275</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>51.941141083548054</v>
+        <v>57.361133777953931</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>48.250789855744394</v>
+        <v>53.285699044527725</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1811,7 +1812,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1851,9 +1852,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1930,310 +1931,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>53.162511069496539</v>
+        <v>58.709952184613066</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>48.615865769373173</v>
+        <v>53.688870170227197</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>57.709156369619933</v>
+        <v>63.731034198998962</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2259,7 +2260,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2299,9 +2300,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2378,310 +2379,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>41.179458161749338</v>
+        <v>45.476482788860736</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>37.577498580120597</v>
+        <v>41.498663258630359</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>35.986448948971713</v>
+        <v>39.741589601105289</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>35.334560558431548</v>
+        <v>39.021677477535988</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>35.50029489500956</v>
+        <v>39.204705983528186</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>40.185052142281279</v>
+        <v>44.378311752907557</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>41.886591331148836</v>
+        <v>46.257404414427427</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>41.886591331148836</v>
+        <v>46.257404414427427</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>44.019039795119227</v>
+        <v>48.612371191527011</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>44.129529352837892</v>
+        <v>48.734390195521804</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>44.019039795119227</v>
+        <v>48.612371191527011</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>44.206872043240963</v>
+        <v>48.819803498318159</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>43.57708156424453</v>
+        <v>48.124295175547815</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>43.300857669947845</v>
+        <v>47.819247665560823</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>42.394843296654727</v>
+        <v>46.818691832803495</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>41.09106651557439</v>
+        <v>45.378867585664892</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>38.649247289991727</v>
+        <v>42.682247597379884</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>41.289947719468003</v>
+        <v>45.598501792855522</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>42.869948394845025</v>
+        <v>47.343373549981116</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>44.085333529750422</v>
+        <v>48.685582593923883</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>43.13512333336984</v>
+        <v>47.636219159568633</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>44.019039795119227</v>
+        <v>48.612371191527011</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>43.930648148944286</v>
+        <v>48.514755988331167</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>42.140717313901789</v>
+        <v>46.538048123615461</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>43.842256502769345</v>
+        <v>48.417140785135331</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>38.671345201535459</v>
+        <v>42.706651398178849</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>42.207011048532991</v>
+        <v>46.611259526012347</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>40.770646798190242</v>
+        <v>45.025012474079979</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>41.555122657992818</v>
+        <v>45.891347402443039</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>42.207011048532991</v>
+        <v>46.611259526012347</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>41.113164427118129</v>
+        <v>45.403271386463857</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>44.394704291362707</v>
+        <v>49.027235805109314</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>47.333726526679406</v>
+        <v>52.272941311370914</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>47.543656686344882</v>
+        <v>52.504777418961027</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>48.00771282876331</v>
+        <v>53.017257235739173</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>48.913727202056428</v>
+        <v>54.017813068496508</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>49.687154106087135</v>
+        <v>54.871946096460078</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>50.97988193139561</v>
+        <v>56.299568443199199</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>49.046314671318832</v>
+        <v>54.164235873290259</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>47.52155877480115</v>
+        <v>52.480373618162062</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>47.355824438223138</v>
+        <v>52.297345112169864</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>48.317083590375589</v>
+        <v>53.358910446924597</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>48.582258528900404</v>
+        <v>53.651756056512113</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>49.609811415684064</v>
+        <v>54.786532793663717</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>50.217503983136766</v>
+        <v>55.457637315635104</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>50.990930887167472</v>
+        <v>56.311770343598674</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>49.687154106087135</v>
+        <v>54.871946096460078</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>46.958062030435919</v>
+        <v>51.858076697788597</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>36.892463322264831</v>
+        <v>40.742145433862618</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>34.052881688894942</v>
+        <v>37.606257031196343</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>31.920433224924558</v>
+        <v>35.251290254096766</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>31.412181259418663</v>
+        <v>34.690002835720705</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>32.494978925061659</v>
+        <v>35.885789074869713</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>37.997358899451562</v>
+        <v>41.96233547381059</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>49.985475911927551</v>
+        <v>55.201397407246034</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>47.422118172854347</v>
+        <v>52.370556514566751</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>49.587713504140332</v>
+        <v>54.762128992864767</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>48.946874069372022</v>
+        <v>54.054418769694934</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>45.367012399287034</v>
+        <v>50.101003040263528</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>44.085333529750422</v>
+        <v>48.685582593923883</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>48.814286600109618</v>
+        <v>53.907995964901183</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>49.919182177296349</v>
+        <v>55.128186004849148</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>49.587713504140332</v>
+        <v>54.762128992864767</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>49.002118848231369</v>
+        <v>54.115428271692338</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>49.002118848231369</v>
+        <v>54.115428271692338</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>49.587713504140332</v>
+        <v>54.762128992864767</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>51.024077754483073</v>
+        <v>56.348376044797121</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>52.902400235700512</v>
+        <v>58.422699112708663</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>56.548555640416716</v>
+        <v>62.449326244536955</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>61.531634693528851</v>
+        <v>67.952383324702282</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>56.095548453770157</v>
+        <v>61.949048328158291</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>49.720300973402736</v>
+        <v>54.908551797658518</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2707,7 +2708,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2747,9 +2748,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2826,310 +2827,310 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>41.516451312791283</v>
+        <v>45.848640751044854</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>46.479734320145489</v>
+        <v>51.329836092994455</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>46.412519839199966</v>
+        <v>51.255607865564286</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3155,7 +3156,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
+++ b/data/IEEE9/Market Data/ieee9_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62C325-1E5B-4650-AD7C-80FFEF562565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD92FCF-0C20-41E9-B738-B07AA3B11785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
